--- a/Primer Parcial/PracticaArchivos/archivo.xlsx
+++ b/Primer Parcial/PracticaArchivos/archivo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre</t>
   </si>
@@ -19,25 +19,13 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>País</t>
-  </si>
-  <si>
     <t>Juan</t>
-  </si>
-  <si>
-    <t>España</t>
   </si>
   <si>
     <t>María</t>
   </si>
   <si>
-    <t>México</t>
-  </si>
-  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -414,56 +402,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
